--- a/交通費申請一覧機能/設計書/コントローラー設計書_交通費申請一覧画面.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラー設計書_交通費申請一覧画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/149389e555a7bafe/個人フォルダ/sekine/嵯峨君宛てフォルダ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A7927014-1F4C-4DD0-B303-967BDB18C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06CF9505-C9A4-4570-81E3-053D25F66FCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA54C1F-1AF2-4368-BCAD-D50F4967B010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="11870" windowHeight="8960" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請一覧コントローラ" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -59,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="240">
   <si>
     <t>システム名</t>
   </si>
@@ -71,19 +69,6 @@
   </si>
   <si>
     <t>資料名</t>
-  </si>
-  <si>
-    <t>詳細設計書_交通費申請一覧コントローラ</t>
-    <rPh sb="0" eb="5">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>コウツウヒ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>シンセイイチラン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>作成者</t>
@@ -618,49 +603,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>コード分類ParamObjから、承認ステータス分類値、申請区分分類値、利用区分分類値の3つを取得し、コード分類検索Paramリストへそれぞれ追加する</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t>シンセイクブンブンルイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>リヨウクブン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>コード分類検索Paramリストを引数に、以下のメソッドを呼び出す</t>
     <rPh sb="3" eb="7">
       <t>ブンルイケンサク</t>
@@ -724,50 +666,6 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>取得したコード分類マップから、承認ステータス分類値、申請区分分類値、利用区分分類値をそれぞれキーとして、</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対応のリストを、承認ステータスリスト&lt;表示用コード名クラス&gt;、申請区分リスト&lt;表示用コード名クラス&gt;、利用区分リスト&lt;表示用コード名クラス&gt;として取得する</t>
-    <rPh sb="8" eb="10">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>シンセイクブン</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>リヨウクブン</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1058,10 +956,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>表示用Id名前クラスオブジェクトを作成、以下メソッドを呼び出し処理結果を格納する</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>1-2</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -2037,36 +1931,180 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>利用区分リスト</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>コードマスタから取得した利用区分のコードとコード名</t>
+    <t>private</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>static final</t>
+  </si>
+  <si>
+    <t>コントローラー設計書_交通費申請一覧画面</t>
+    <rPh sb="7" eb="10">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コードマスタ取得処理結果格納クラスオブジェクトを作成し、項目6で取得したリストをそれぞれ格納する</t>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード分類リストマップ&lt;コード分類,処理結果リスト&lt;表示用コード名&gt;&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード分類ParamObjから、承認ステータス分類値、申請区分分類値、利用サービス分類値の3つを取得し、コード分類検索Paramリストへそれぞれ追加する</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>シンセイクブンブンルイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>取得したコード分類マップから、承認ステータス分類値、申請区分分類値、利用サービス分類値をそれぞれキーとして、</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>対応のリストを、承認ステータスリスト&lt;表示用コード名クラス&gt;、申請区分リスト&lt;表示用コード名クラス&gt;、利用サービスリスト&lt;表示用コード名クラス&gt;として取得する</t>
+    <rPh sb="8" eb="10">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>シンセイクブン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>利用サービスリスト</t>
+  </si>
+  <si>
+    <t>コードマスタから取得した利用サービスのコードとコード名</t>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="12" eb="16">
-      <t>リヨウクブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="26" eb="27">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>static final</t>
+    <t>セッション.社員Idを引数に、表示用Id名前を取得する以下のメソッドを呼び出す</t>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -3008,10 +3046,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3190,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3292,7 +3326,7 @@
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
       <c r="I2" s="125" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="J2" s="125"/>
       <c r="K2" s="125"/>
@@ -3322,7 +3356,7 @@
       <c r="AI2" s="125"/>
       <c r="AJ2" s="125"/>
       <c r="AK2" s="115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
@@ -3333,7 +3367,7 @@
       <c r="AR2" s="115"/>
       <c r="AS2" s="115"/>
       <c r="AT2" s="115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU2" s="115"/>
       <c r="AV2" s="115"/>
@@ -3343,7 +3377,7 @@
       <c r="AZ2" s="115"/>
       <c r="BA2" s="115"/>
       <c r="BB2" s="115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="115"/>
       <c r="BD2" s="115"/>
@@ -3353,7 +3387,7 @@
       <c r="BH2" s="115"/>
       <c r="BI2" s="115"/>
       <c r="BJ2" s="126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK2" s="126"/>
       <c r="BL2" s="126"/>
@@ -3376,7 +3410,7 @@
       <c r="J3" s="125"/>
       <c r="K3" s="125"/>
       <c r="L3" s="125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
@@ -3403,7 +3437,7 @@
       <c r="AI3" s="125"/>
       <c r="AJ3" s="125"/>
       <c r="AK3" s="125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="125"/>
       <c r="AM3" s="125"/>
@@ -3424,7 +3458,7 @@
       <c r="AZ3" s="127"/>
       <c r="BA3" s="127"/>
       <c r="BB3" s="125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="125"/>
       <c r="BD3" s="125"/>
@@ -3434,7 +3468,7 @@
       <c r="BH3" s="125"/>
       <c r="BI3" s="125"/>
       <c r="BJ3" s="128">
-        <v>45537</v>
+        <v>45548</v>
       </c>
       <c r="BK3" s="128"/>
       <c r="BL3" s="128"/>
@@ -3452,7 +3486,7 @@
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3510,7 +3544,7 @@
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="C6" s="120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="120"/>
       <c r="E6" s="120"/>
@@ -3738,7 +3772,7 @@
     <row r="10" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AH10" s="7"/>
@@ -3769,7 +3803,7 @@
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="C11" s="114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -3781,7 +3815,7 @@
       <c r="K11" s="114"/>
       <c r="L11" s="114"/>
       <c r="M11" s="115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="115"/>
       <c r="O11" s="115"/>
@@ -3795,7 +3829,7 @@
       <c r="W11" s="115"/>
       <c r="X11" s="115"/>
       <c r="Y11" s="114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="114"/>
       <c r="AA11" s="114"/>
@@ -3807,7 +3841,7 @@
       <c r="AG11" s="114"/>
       <c r="AH11" s="114"/>
       <c r="AI11" s="116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" s="116"/>
       <c r="AK11" s="116"/>
@@ -3847,7 +3881,7 @@
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114"/>
@@ -3859,7 +3893,7 @@
       <c r="K12" s="114"/>
       <c r="L12" s="114"/>
       <c r="M12" s="116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="116"/>
       <c r="O12" s="116"/>
@@ -3921,7 +3955,7 @@
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="C13" s="114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="114"/>
       <c r="E13" s="114"/>
@@ -3993,14 +4027,14 @@
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="C14" s="116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="116"/>
       <c r="F14" s="116"/>
       <c r="G14" s="116"/>
       <c r="H14" s="117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="117"/>
       <c r="J14" s="117"/>
@@ -4562,7 +4596,7 @@
     <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="O23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BP23"/>
       <c r="BQ23" s="4"/>
@@ -4570,10 +4604,10 @@
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="BP24"/>
       <c r="BQ24" s="4"/>
@@ -4581,25 +4615,25 @@
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="C25" s="115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="115"/>
       <c r="E25" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="115"/>
       <c r="G25" s="115"/>
       <c r="H25" s="115"/>
       <c r="I25" s="115"/>
       <c r="J25" s="115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="115"/>
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
       <c r="N25" s="115"/>
       <c r="O25" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P25" s="116"/>
       <c r="Q25" s="116"/>
@@ -4617,7 +4651,7 @@
       <c r="AC25" s="116"/>
       <c r="AD25" s="116"/>
       <c r="AE25" s="114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF25" s="114"/>
       <c r="AG25" s="114"/>
@@ -4644,7 +4678,7 @@
       <c r="BB25" s="114"/>
       <c r="BC25" s="114"/>
       <c r="BD25" s="114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BE25" s="114"/>
       <c r="BF25" s="114"/>
@@ -4667,7 +4701,7 @@
       </c>
       <c r="D26" s="115"/>
       <c r="E26" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" s="114"/>
       <c r="G26" s="114"/>
@@ -4679,7 +4713,7 @@
       <c r="M26" s="114"/>
       <c r="N26" s="114"/>
       <c r="O26" s="116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="116"/>
       <c r="Q26" s="116"/>
@@ -4697,7 +4731,7 @@
       <c r="AC26" s="116"/>
       <c r="AD26" s="116"/>
       <c r="AE26" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF26" s="114"/>
       <c r="AG26" s="114"/>
@@ -4724,7 +4758,7 @@
       <c r="BB26" s="114"/>
       <c r="BC26" s="114"/>
       <c r="BD26" s="114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BE26" s="114"/>
       <c r="BF26" s="114"/>
@@ -4747,7 +4781,7 @@
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="114"/>
       <c r="G27" s="114"/>
@@ -4759,7 +4793,7 @@
       <c r="M27" s="114"/>
       <c r="N27" s="114"/>
       <c r="O27" s="116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="116"/>
       <c r="Q27" s="116"/>
@@ -4777,7 +4811,7 @@
       <c r="AC27" s="116"/>
       <c r="AD27" s="116"/>
       <c r="AE27" s="114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF27" s="114"/>
       <c r="AG27" s="114"/>
@@ -4804,7 +4838,7 @@
       <c r="BB27" s="114"/>
       <c r="BC27" s="114"/>
       <c r="BD27" s="114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE27" s="114"/>
       <c r="BF27" s="114"/>
@@ -4827,7 +4861,7 @@
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="114"/>
       <c r="G28" s="114"/>
@@ -4839,7 +4873,7 @@
       <c r="M28" s="114"/>
       <c r="N28" s="114"/>
       <c r="O28" s="116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" s="116"/>
       <c r="Q28" s="116"/>
@@ -4882,7 +4916,7 @@
       <c r="BB28" s="114"/>
       <c r="BC28" s="114"/>
       <c r="BD28" s="114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE28" s="114"/>
       <c r="BF28" s="114"/>
@@ -4905,7 +4939,7 @@
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="114"/>
       <c r="G29" s="114"/>
@@ -4917,7 +4951,7 @@
       <c r="M29" s="114"/>
       <c r="N29" s="114"/>
       <c r="O29" s="116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" s="116"/>
       <c r="Q29" s="116"/>
@@ -4935,7 +4969,7 @@
       <c r="AC29" s="116"/>
       <c r="AD29" s="116"/>
       <c r="AE29" s="114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF29" s="114"/>
       <c r="AG29" s="114"/>
@@ -4962,7 +4996,7 @@
       <c r="BB29" s="114"/>
       <c r="BC29" s="114"/>
       <c r="BD29" s="114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BE29" s="114"/>
       <c r="BF29" s="114"/>
@@ -6150,7 +6184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC26EB20-4B08-4981-B49B-05C61B0B230C}">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6177,7 +6211,7 @@
       <c r="G1" s="143"/>
       <c r="H1" s="143"/>
       <c r="I1" s="144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="144"/>
       <c r="K1" s="144"/>
@@ -6256,7 +6290,7 @@
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
       <c r="I2" s="125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="125"/>
       <c r="K2" s="125"/>
@@ -6286,7 +6320,7 @@
       <c r="AI2" s="125"/>
       <c r="AJ2" s="125"/>
       <c r="AK2" s="135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="135"/>
       <c r="AM2" s="135"/>
@@ -6297,7 +6331,7 @@
       <c r="AR2" s="135"/>
       <c r="AS2" s="135"/>
       <c r="AT2" s="135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU2" s="135"/>
       <c r="AV2" s="135"/>
@@ -6307,7 +6341,7 @@
       <c r="AZ2" s="135"/>
       <c r="BA2" s="135"/>
       <c r="BB2" s="135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="135"/>
       <c r="BD2" s="135"/>
@@ -6317,7 +6351,7 @@
       <c r="BH2" s="135"/>
       <c r="BI2" s="135"/>
       <c r="BJ2" s="146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK2" s="146"/>
       <c r="BL2" s="146"/>
@@ -6340,7 +6374,7 @@
       <c r="J3" s="125"/>
       <c r="K3" s="125"/>
       <c r="L3" s="125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
@@ -6367,7 +6401,7 @@
       <c r="AI3" s="125"/>
       <c r="AJ3" s="125"/>
       <c r="AK3" s="147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="147"/>
       <c r="AM3" s="147"/>
@@ -6388,7 +6422,7 @@
       <c r="AZ3" s="148"/>
       <c r="BA3" s="148"/>
       <c r="BB3" s="147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="147"/>
       <c r="BD3" s="147"/>
@@ -6414,7 +6448,7 @@
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -6432,21 +6466,21 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="115"/>
       <c r="E6" s="115"/>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="115"/>
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
       <c r="L6" s="115"/>
       <c r="M6" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -6476,7 +6510,7 @@
       <c r="AM6" s="142"/>
       <c r="AN6" s="142"/>
       <c r="AO6" s="114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP6" s="114"/>
       <c r="AQ6" s="114"/>
@@ -6508,7 +6542,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="114"/>
       <c r="E7" s="114"/>
@@ -6520,7 +6554,7 @@
       <c r="K7" s="114"/>
       <c r="L7" s="114"/>
       <c r="M7" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -6584,7 +6618,7 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD9" s="13"/>
       <c r="AG9" s="16"/>
@@ -6595,7 +6629,7 @@
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
       <c r="G10" s="135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="135"/>
       <c r="I10" s="135"/>
@@ -6610,12 +6644,12 @@
       <c r="R10" s="135"/>
       <c r="S10" s="135"/>
       <c r="T10" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="135"/>
       <c r="V10" s="135"/>
       <c r="W10" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10" s="115"/>
       <c r="Y10" s="115"/>
@@ -6656,7 +6690,7 @@
       <c r="BH10" s="115"/>
       <c r="BI10" s="115"/>
       <c r="BJ10" s="115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK10" s="115"/>
       <c r="BL10" s="115"/>
@@ -6668,13 +6702,13 @@
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="C11" s="136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="136"/>
       <c r="E11" s="136"/>
       <c r="F11" s="136"/>
       <c r="G11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -6689,7 +6723,7 @@
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
       <c r="T11" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" s="135"/>
       <c r="V11" s="135"/>
@@ -7019,7 +7053,7 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="13"/>
       <c r="AG17" s="16"/>
@@ -7030,7 +7064,7 @@
       <c r="E18" s="129"/>
       <c r="F18" s="129"/>
       <c r="G18" s="135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="135"/>
       <c r="I18" s="135"/>
@@ -7045,12 +7079,12 @@
       <c r="R18" s="135"/>
       <c r="S18" s="135"/>
       <c r="T18" s="135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="135"/>
       <c r="V18" s="135"/>
       <c r="W18" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X18" s="115"/>
       <c r="Y18" s="115"/>
@@ -7091,7 +7125,7 @@
       <c r="BH18" s="115"/>
       <c r="BI18" s="115"/>
       <c r="BJ18" s="115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK18" s="115"/>
       <c r="BL18" s="115"/>
@@ -7102,13 +7136,13 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C19" s="136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="136"/>
       <c r="E19" s="136"/>
       <c r="F19" s="136"/>
       <c r="G19" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -7250,7 +7284,7 @@
     <row r="22" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -7391,7 +7425,7 @@
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="29"/>
       <c r="D24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD24" s="13"/>
       <c r="AG24" s="16"/>
@@ -7406,7 +7440,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="E26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BP26" s="30"/>
     </row>
@@ -7418,7 +7452,7 @@
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="29"/>
       <c r="E28" s="138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="138"/>
       <c r="G28" s="138"/>
@@ -7430,7 +7464,7 @@
       <c r="M28" s="138"/>
       <c r="N28" s="138"/>
       <c r="O28" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P28" s="139"/>
       <c r="Q28" s="139"/>
@@ -7485,7 +7519,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="E29" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="138"/>
       <c r="G29" s="138"/>
@@ -7497,7 +7531,7 @@
       <c r="M29" s="138"/>
       <c r="N29" s="138"/>
       <c r="O29" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P29" s="141"/>
       <c r="Q29" s="141"/>
@@ -7552,7 +7586,7 @@
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C30" s="29"/>
       <c r="E30" s="138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="138"/>
       <c r="G30" s="138"/>
@@ -7564,7 +7598,7 @@
       <c r="M30" s="138"/>
       <c r="N30" s="138"/>
       <c r="O30" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P30" s="141"/>
       <c r="Q30" s="141"/>
@@ -7619,7 +7653,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="E31" s="133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -7631,7 +7665,7 @@
       <c r="M31" s="133"/>
       <c r="N31" s="133"/>
       <c r="O31" s="134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="134"/>
       <c r="Q31" s="134"/>
@@ -7749,7 +7783,7 @@
     <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="E33" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -7877,7 +7911,7 @@
     <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C35" s="29"/>
       <c r="E35" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -7943,7 +7977,7 @@
       <c r="C36" s="29"/>
       <c r="E36" s="43"/>
       <c r="F36" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
@@ -7952,7 +7986,7 @@
       <c r="K36" s="40"/>
       <c r="L36" s="42"/>
       <c r="M36" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
@@ -8010,7 +8044,7 @@
       <c r="C37" s="29"/>
       <c r="E37" s="46"/>
       <c r="F37" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
@@ -8019,7 +8053,7 @@
       <c r="K37" s="40"/>
       <c r="L37" s="42"/>
       <c r="M37" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N37" s="40"/>
       <c r="O37" s="40"/>
@@ -8140,7 +8174,7 @@
       <c r="A39" s="12"/>
       <c r="C39" s="29"/>
       <c r="E39" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BP39" s="30"/>
       <c r="BQ39" s="15"/>
@@ -8158,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BP41" s="30"/>
       <c r="BQ41" s="15"/>
@@ -8175,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
@@ -8306,7 +8340,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
@@ -8437,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -8565,7 +8599,7 @@
     <row r="49" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C49" s="29"/>
       <c r="E49" s="129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F49" s="129"/>
       <c r="G49" s="129"/>
@@ -8577,7 +8611,7 @@
       <c r="M49" s="129"/>
       <c r="N49" s="129"/>
       <c r="O49" s="116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P49" s="116"/>
       <c r="Q49" s="116"/>
@@ -8632,7 +8666,7 @@
     <row r="50" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C50" s="29"/>
       <c r="E50" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="129"/>
       <c r="G50" s="129"/>
@@ -8644,7 +8678,7 @@
       <c r="M50" s="129"/>
       <c r="N50" s="129"/>
       <c r="O50" s="116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P50" s="116"/>
       <c r="Q50" s="116"/>
@@ -8699,7 +8733,7 @@
     <row r="51" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C51" s="29"/>
       <c r="E51" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="129"/>
       <c r="G51" s="129"/>
@@ -8711,7 +8745,7 @@
       <c r="M51" s="129"/>
       <c r="N51" s="129"/>
       <c r="O51" s="130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P51" s="130"/>
       <c r="Q51" s="130"/>
@@ -8766,7 +8800,7 @@
     <row r="52" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
       <c r="E52" s="129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F52" s="129"/>
       <c r="G52" s="129"/>
@@ -8778,7 +8812,7 @@
       <c r="M52" s="129"/>
       <c r="N52" s="129"/>
       <c r="O52" s="132" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="P52" s="132"/>
       <c r="Q52" s="132"/>
@@ -8889,7 +8923,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="O54" s="99"/>
       <c r="P54" s="99"/>
@@ -8945,7 +8979,7 @@
     <row r="55" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C55" s="29"/>
       <c r="E55" s="13" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="O55" s="99"/>
       <c r="P55" s="99"/>
@@ -9057,7 +9091,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="O57" s="99"/>
       <c r="P57" s="99"/>
@@ -9121,7 +9155,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AD59" s="13"/>
       <c r="BP59" s="30"/>
@@ -9129,7 +9163,7 @@
     <row r="60" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C60" s="29"/>
       <c r="E60" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AD60" s="13"/>
       <c r="BP60" s="30"/>
@@ -9142,7 +9176,7 @@
     <row r="62" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C62" s="29"/>
       <c r="E62" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="129"/>
       <c r="G62" s="129"/>
@@ -9154,7 +9188,7 @@
       <c r="M62" s="129"/>
       <c r="N62" s="129"/>
       <c r="O62" s="116" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P62" s="116"/>
       <c r="Q62" s="116"/>
@@ -9209,7 +9243,7 @@
     <row r="63" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C63" s="29"/>
       <c r="E63" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="129"/>
       <c r="G63" s="129"/>
@@ -9221,7 +9255,7 @@
       <c r="M63" s="129"/>
       <c r="N63" s="129"/>
       <c r="O63" s="116" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P63" s="116"/>
       <c r="Q63" s="116"/>
@@ -9276,7 +9310,7 @@
     <row r="64" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
       <c r="E64" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="129"/>
       <c r="G64" s="129"/>
@@ -9288,7 +9322,7 @@
       <c r="M64" s="129"/>
       <c r="N64" s="129"/>
       <c r="O64" s="130" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P64" s="130"/>
       <c r="Q64" s="130"/>
@@ -9343,7 +9377,7 @@
     <row r="65" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C65" s="29"/>
       <c r="E65" s="131" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F65" s="131"/>
       <c r="G65" s="131"/>
@@ -9355,7 +9389,7 @@
       <c r="M65" s="131"/>
       <c r="N65" s="131"/>
       <c r="O65" s="132" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P65" s="132"/>
       <c r="Q65" s="132"/>
@@ -9410,7 +9444,7 @@
     <row r="66" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C66" s="29"/>
       <c r="E66" s="138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F66" s="138"/>
       <c r="G66" s="138"/>
@@ -9422,7 +9456,7 @@
       <c r="M66" s="138"/>
       <c r="N66" s="138"/>
       <c r="O66" s="141" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P66" s="141"/>
       <c r="Q66" s="141"/>
@@ -9539,11 +9573,11 @@
     </row>
     <row r="68" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C68" s="29"/>
-      <c r="D68" s="97" t="s">
-        <v>97</v>
+      <c r="D68" s="97">
+        <v>9</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O68" s="75"/>
       <c r="P68" s="75"/>
@@ -9652,10 +9686,10 @@
     <row r="70" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C70" s="29"/>
       <c r="D70" s="97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O70" s="75"/>
       <c r="P70" s="75"/>
@@ -9764,10 +9798,10 @@
     <row r="72" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C72" s="29"/>
       <c r="D72" s="97" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O72" s="75"/>
       <c r="P72" s="75"/>
@@ -10906,7 +10940,7 @@
   <dimension ref="A1:AMK123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10932,7 +10966,7 @@
       <c r="G1" s="143"/>
       <c r="H1" s="143"/>
       <c r="I1" s="144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="144"/>
       <c r="K1" s="144"/>
@@ -11011,7 +11045,7 @@
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
       <c r="I2" s="125" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J2" s="125"/>
       <c r="K2" s="125"/>
@@ -11041,7 +11075,7 @@
       <c r="AI2" s="125"/>
       <c r="AJ2" s="125"/>
       <c r="AK2" s="135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="135"/>
       <c r="AM2" s="135"/>
@@ -11052,7 +11086,7 @@
       <c r="AR2" s="135"/>
       <c r="AS2" s="135"/>
       <c r="AT2" s="135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU2" s="135"/>
       <c r="AV2" s="135"/>
@@ -11062,7 +11096,7 @@
       <c r="AZ2" s="135"/>
       <c r="BA2" s="135"/>
       <c r="BB2" s="135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="135"/>
       <c r="BD2" s="135"/>
@@ -11072,7 +11106,7 @@
       <c r="BH2" s="135"/>
       <c r="BI2" s="135"/>
       <c r="BJ2" s="146" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="BK2" s="146"/>
       <c r="BL2" s="146"/>
@@ -11095,7 +11129,7 @@
       <c r="J3" s="125"/>
       <c r="K3" s="125"/>
       <c r="L3" s="125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="125"/>
       <c r="N3" s="125"/>
@@ -11122,7 +11156,7 @@
       <c r="AI3" s="125"/>
       <c r="AJ3" s="125"/>
       <c r="AK3" s="147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="147"/>
       <c r="AM3" s="147"/>
@@ -11143,7 +11177,7 @@
       <c r="AZ3" s="148"/>
       <c r="BA3" s="148"/>
       <c r="BB3" s="147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="147"/>
       <c r="BD3" s="147"/>
@@ -11169,7 +11203,7 @@
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -11187,21 +11221,21 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="115"/>
       <c r="E6" s="115"/>
       <c r="F6" s="115"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="115"/>
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
       <c r="L6" s="115"/>
       <c r="M6" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -11231,7 +11265,7 @@
       <c r="AM6" s="142"/>
       <c r="AN6" s="142"/>
       <c r="AO6" s="114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP6" s="114"/>
       <c r="AQ6" s="114"/>
@@ -11263,7 +11297,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="114"/>
       <c r="E7" s="114"/>
@@ -11275,7 +11309,7 @@
       <c r="K7" s="114"/>
       <c r="L7" s="114"/>
       <c r="M7" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -11339,7 +11373,7 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD9" s="13"/>
       <c r="AG9" s="16"/>
@@ -11350,7 +11384,7 @@
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
       <c r="G10" s="135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="135"/>
       <c r="I10" s="135"/>
@@ -11365,12 +11399,12 @@
       <c r="R10" s="135"/>
       <c r="S10" s="135"/>
       <c r="T10" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="135"/>
       <c r="V10" s="135"/>
       <c r="W10" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10" s="115"/>
       <c r="Y10" s="115"/>
@@ -11411,7 +11445,7 @@
       <c r="BH10" s="115"/>
       <c r="BI10" s="115"/>
       <c r="BJ10" s="115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK10" s="115"/>
       <c r="BL10" s="115"/>
@@ -11423,13 +11457,13 @@
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="C11" s="136" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="136"/>
       <c r="E11" s="136"/>
       <c r="F11" s="136"/>
       <c r="G11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -11444,12 +11478,12 @@
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
       <c r="T11" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" s="135"/>
       <c r="V11" s="135"/>
       <c r="W11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -11500,13 +11534,13 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="137" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
       <c r="F12" s="137"/>
       <c r="G12" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -11521,12 +11555,12 @@
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
       <c r="T12" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" s="135"/>
       <c r="V12" s="135"/>
       <c r="W12" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -11576,13 +11610,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="137" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
       <c r="F13" s="137"/>
       <c r="G13" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -11597,7 +11631,7 @@
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
       <c r="T13" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="135"/>
       <c r="V13" s="135"/>
@@ -11649,13 +11683,13 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C14" s="137" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="137"/>
       <c r="E14" s="137"/>
       <c r="F14" s="137"/>
       <c r="G14" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -11721,13 +11755,13 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C15" s="137" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="137"/>
       <c r="E15" s="137"/>
       <c r="F15" s="137"/>
       <c r="G15" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -11745,7 +11779,7 @@
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
       <c r="W15" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -11795,13 +11829,13 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C16" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D16" s="137"/>
       <c r="E16" s="137"/>
       <c r="F16" s="137"/>
       <c r="G16" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -11819,7 +11853,7 @@
       <c r="U16" s="135"/>
       <c r="V16" s="135"/>
       <c r="W16" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
@@ -11869,13 +11903,13 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C17" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
       <c r="F17" s="137"/>
       <c r="G17" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -11941,13 +11975,13 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C18" s="137" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D18" s="137"/>
       <c r="E18" s="137"/>
       <c r="F18" s="137"/>
       <c r="G18" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -11962,7 +11996,7 @@
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
       <c r="T18" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" s="135"/>
       <c r="V18" s="135"/>
@@ -12019,7 +12053,7 @@
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD20" s="13"/>
       <c r="AG20" s="16"/>
@@ -12030,7 +12064,7 @@
       <c r="E21" s="129"/>
       <c r="F21" s="129"/>
       <c r="G21" s="135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="135"/>
       <c r="I21" s="135"/>
@@ -12045,12 +12079,12 @@
       <c r="R21" s="135"/>
       <c r="S21" s="135"/>
       <c r="T21" s="135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U21" s="135"/>
       <c r="V21" s="135"/>
       <c r="W21" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X21" s="115"/>
       <c r="Y21" s="115"/>
@@ -12091,7 +12125,7 @@
       <c r="BH21" s="115"/>
       <c r="BI21" s="115"/>
       <c r="BJ21" s="115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK21" s="115"/>
       <c r="BL21" s="115"/>
@@ -12102,13 +12136,13 @@
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C22" s="136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="136"/>
       <c r="E22" s="136"/>
       <c r="F22" s="136"/>
       <c r="G22" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -12126,7 +12160,7 @@
       <c r="U22" s="135"/>
       <c r="V22" s="135"/>
       <c r="W22" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
@@ -12252,7 +12286,7 @@
     <row r="25" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -12396,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AD27" s="13"/>
       <c r="AG27" s="16"/>
@@ -12411,10 +12445,10 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="E29" s="96" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="BP29" s="30"/>
     </row>
@@ -12426,7 +12460,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="E31" s="138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="138"/>
       <c r="G31" s="138"/>
@@ -12438,7 +12472,7 @@
       <c r="M31" s="138"/>
       <c r="N31" s="138"/>
       <c r="O31" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P31" s="139"/>
       <c r="Q31" s="139"/>
@@ -12493,7 +12527,7 @@
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="E32" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="138"/>
       <c r="G32" s="138"/>
@@ -12505,7 +12539,7 @@
       <c r="M32" s="138"/>
       <c r="N32" s="138"/>
       <c r="O32" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P32" s="141"/>
       <c r="Q32" s="141"/>
@@ -12560,7 +12594,7 @@
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="E33" s="138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="138"/>
       <c r="G33" s="138"/>
@@ -12572,7 +12606,7 @@
       <c r="M33" s="138"/>
       <c r="N33" s="138"/>
       <c r="O33" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P33" s="141"/>
       <c r="Q33" s="141"/>
@@ -12627,7 +12661,7 @@
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="29"/>
       <c r="E34" s="138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="138"/>
       <c r="G34" s="138"/>
@@ -12639,7 +12673,7 @@
       <c r="M34" s="138"/>
       <c r="N34" s="138"/>
       <c r="O34" s="141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P34" s="141"/>
       <c r="Q34" s="141"/>
@@ -12757,11 +12791,11 @@
     <row r="36" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C36" s="29"/>
       <c r="E36" s="98" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F36" s="71"/>
       <c r="G36" s="71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H36" s="71"/>
       <c r="I36" s="71"/>
@@ -12828,7 +12862,7 @@
     <row r="38" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C38" s="29"/>
       <c r="E38" s="39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -12893,7 +12927,7 @@
       <c r="C39" s="29"/>
       <c r="E39" s="43"/>
       <c r="F39" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -12902,7 +12936,7 @@
       <c r="K39" s="40"/>
       <c r="L39" s="42"/>
       <c r="M39" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
@@ -12959,7 +12993,7 @@
       <c r="C40" s="29"/>
       <c r="E40" s="46"/>
       <c r="F40" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -12968,7 +13002,7 @@
       <c r="K40" s="40"/>
       <c r="L40" s="42"/>
       <c r="M40" s="45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
@@ -13030,10 +13064,10 @@
     <row r="42" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
       <c r="E42" s="97" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="BK42" s="71"/>
       <c r="BP42" s="30"/>
@@ -13047,10 +13081,10 @@
     <row r="44" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C44" s="29"/>
       <c r="E44" s="96" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AD44" s="13"/>
       <c r="BP44" s="30"/>
@@ -13066,7 +13100,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AD46" s="13"/>
       <c r="AF46" s="16"/>
@@ -13081,7 +13115,7 @@
     <row r="48" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C48" s="29"/>
       <c r="E48" s="39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -13147,7 +13181,7 @@
       <c r="C49" s="29"/>
       <c r="E49" s="43"/>
       <c r="F49" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -13156,7 +13190,7 @@
       <c r="K49" s="40"/>
       <c r="L49" s="42"/>
       <c r="M49" s="45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
@@ -13214,7 +13248,7 @@
       <c r="C50" s="29"/>
       <c r="E50" s="46"/>
       <c r="F50" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -13223,7 +13257,7 @@
       <c r="K50" s="40"/>
       <c r="L50" s="42"/>
       <c r="M50" s="45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
@@ -13343,11 +13377,11 @@
     <row r="52" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
       <c r="E52" s="98" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F52" s="71"/>
       <c r="G52" s="71" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H52" s="71"/>
       <c r="I52" s="71"/>
@@ -13473,10 +13507,10 @@
     <row r="54" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C54" s="29"/>
       <c r="E54" s="98" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="BP54" s="30"/>
     </row>
@@ -13548,7 +13582,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F56" s="71"/>
       <c r="G56" s="71"/>
@@ -13613,7 +13647,7 @@
     <row r="57" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C57" s="29"/>
       <c r="E57" s="71" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F57" s="71"/>
       <c r="G57" s="71"/>
@@ -13744,7 +13778,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AD59" s="13"/>
       <c r="AG59" s="16"/>
@@ -13753,7 +13787,7 @@
     <row r="60" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C60" s="29"/>
       <c r="E60" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AD60" s="13"/>
       <c r="AG60" s="16"/>
@@ -13768,7 +13802,7 @@
     <row r="62" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C62" s="29"/>
       <c r="E62" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="129"/>
       <c r="G62" s="129"/>
@@ -13780,7 +13814,7 @@
       <c r="M62" s="129"/>
       <c r="N62" s="129"/>
       <c r="O62" s="116" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P62" s="116"/>
       <c r="Q62" s="116"/>
@@ -13835,7 +13869,7 @@
     <row r="63" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C63" s="29"/>
       <c r="E63" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="129"/>
       <c r="G63" s="129"/>
@@ -13847,7 +13881,7 @@
       <c r="M63" s="129"/>
       <c r="N63" s="129"/>
       <c r="O63" s="116" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P63" s="116"/>
       <c r="Q63" s="116"/>
@@ -13902,7 +13936,7 @@
     <row r="64" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
       <c r="E64" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="129"/>
       <c r="G64" s="129"/>
@@ -13914,7 +13948,7 @@
       <c r="M64" s="129"/>
       <c r="N64" s="129"/>
       <c r="O64" s="116" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P64" s="130"/>
       <c r="Q64" s="130"/>
@@ -13969,7 +14003,7 @@
     <row r="65" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C65" s="29"/>
       <c r="E65" s="129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="129"/>
       <c r="G65" s="129"/>
@@ -13981,7 +14015,7 @@
       <c r="M65" s="129"/>
       <c r="N65" s="129"/>
       <c r="O65" s="116" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P65" s="130"/>
       <c r="Q65" s="130"/>
@@ -14092,7 +14126,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F67" s="71"/>
       <c r="G67" s="71"/>
@@ -14223,7 +14257,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="F69" s="71"/>
       <c r="G69" s="71"/>
@@ -14354,7 +14388,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F71" s="71"/>
       <c r="G71" s="71"/>
@@ -14482,7 +14516,7 @@
     <row r="73" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C73" s="29"/>
       <c r="E73" s="129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F73" s="129"/>
       <c r="G73" s="129"/>
@@ -14494,7 +14528,7 @@
       <c r="M73" s="129"/>
       <c r="N73" s="129"/>
       <c r="O73" s="116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P73" s="116"/>
       <c r="Q73" s="116"/>
@@ -14549,7 +14583,7 @@
     <row r="74" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C74" s="29"/>
       <c r="E74" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" s="129"/>
       <c r="G74" s="129"/>
@@ -14561,7 +14595,7 @@
       <c r="M74" s="129"/>
       <c r="N74" s="129"/>
       <c r="O74" s="116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P74" s="116"/>
       <c r="Q74" s="116"/>
@@ -14616,7 +14650,7 @@
     <row r="75" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C75" s="29"/>
       <c r="E75" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F75" s="129"/>
       <c r="G75" s="129"/>
@@ -14628,7 +14662,7 @@
       <c r="M75" s="129"/>
       <c r="N75" s="129"/>
       <c r="O75" s="130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P75" s="130"/>
       <c r="Q75" s="130"/>
@@ -14683,7 +14717,7 @@
     <row r="76" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C76" s="29"/>
       <c r="E76" s="129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F76" s="129"/>
       <c r="G76" s="129"/>
@@ -14695,7 +14729,7 @@
       <c r="M76" s="129"/>
       <c r="N76" s="129"/>
       <c r="O76" s="132" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P76" s="132"/>
       <c r="Q76" s="132"/>
@@ -14806,7 +14840,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="O78" s="99"/>
       <c r="P78" s="99"/>
@@ -14862,7 +14896,7 @@
     <row r="79" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C79" s="29"/>
       <c r="E79" s="13" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="O79" s="99"/>
       <c r="P79" s="99"/>
@@ -14974,7 +15008,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O81" s="99"/>
       <c r="P81" s="99"/>
@@ -15129,10 +15163,10 @@
     <row r="89" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C89" s="29"/>
       <c r="D89" s="97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AD89" s="13"/>
       <c r="AG89" s="16"/>
@@ -15141,7 +15175,7 @@
     <row r="90" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C90" s="29"/>
       <c r="E90" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AD90" s="13"/>
       <c r="AG90" s="16"/>
@@ -15157,7 +15191,7 @@
     <row r="92" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C92" s="29"/>
       <c r="E92" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F92" s="129"/>
       <c r="G92" s="129"/>
@@ -15169,7 +15203,7 @@
       <c r="M92" s="129"/>
       <c r="N92" s="129"/>
       <c r="O92" s="116" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P92" s="116"/>
       <c r="Q92" s="116"/>
@@ -15224,7 +15258,7 @@
     <row r="93" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C93" s="29"/>
       <c r="E93" s="129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" s="129"/>
       <c r="G93" s="129"/>
@@ -15236,7 +15270,7 @@
       <c r="M93" s="129"/>
       <c r="N93" s="129"/>
       <c r="O93" s="116" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P93" s="116"/>
       <c r="Q93" s="116"/>
@@ -15291,7 +15325,7 @@
     <row r="94" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C94" s="29"/>
       <c r="E94" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F94" s="129"/>
       <c r="G94" s="129"/>
@@ -15303,7 +15337,7 @@
       <c r="M94" s="129"/>
       <c r="N94" s="129"/>
       <c r="O94" s="130" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P94" s="130"/>
       <c r="Q94" s="130"/>
@@ -15358,7 +15392,7 @@
     <row r="95" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C95" s="29"/>
       <c r="E95" s="131" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F95" s="131"/>
       <c r="G95" s="131"/>
@@ -15370,7 +15404,7 @@
       <c r="M95" s="131"/>
       <c r="N95" s="131"/>
       <c r="O95" s="132" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P95" s="132"/>
       <c r="Q95" s="132"/>
@@ -15425,7 +15459,7 @@
     <row r="96" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C96" s="29"/>
       <c r="E96" s="138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F96" s="138"/>
       <c r="G96" s="138"/>
@@ -15437,7 +15471,7 @@
       <c r="M96" s="138"/>
       <c r="N96" s="138"/>
       <c r="O96" s="141" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P96" s="141"/>
       <c r="Q96" s="141"/>
@@ -15555,10 +15589,10 @@
     <row r="98" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C98" s="29"/>
       <c r="D98" s="97" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="BP98" s="30"/>
     </row>
@@ -15570,10 +15604,10 @@
     <row r="100" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C100" s="29"/>
       <c r="D100" s="97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AD100" s="13"/>
       <c r="BP100" s="30"/>
@@ -15586,10 +15620,10 @@
     <row r="102" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C102" s="29"/>
       <c r="D102" s="97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="BP102" s="30"/>
     </row>
@@ -15892,7 +15926,7 @@
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
       <c r="I1" s="150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="150"/>
       <c r="K1" s="150"/>
@@ -15971,7 +16005,7 @@
       <c r="G2" s="152"/>
       <c r="H2" s="152"/>
       <c r="I2" s="153" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J2" s="153"/>
       <c r="K2" s="153"/>
@@ -16001,7 +16035,7 @@
       <c r="AI2" s="153"/>
       <c r="AJ2" s="153"/>
       <c r="AK2" s="154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="154"/>
       <c r="AM2" s="154"/>
@@ -16012,7 +16046,7 @@
       <c r="AR2" s="154"/>
       <c r="AS2" s="154"/>
       <c r="AT2" s="154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU2" s="154"/>
       <c r="AV2" s="154"/>
@@ -16022,7 +16056,7 @@
       <c r="AZ2" s="154"/>
       <c r="BA2" s="154"/>
       <c r="BB2" s="154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="154"/>
       <c r="BD2" s="154"/>
@@ -16053,7 +16087,7 @@
       <c r="J3" s="153"/>
       <c r="K3" s="153"/>
       <c r="L3" s="153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="153"/>
@@ -16080,7 +16114,7 @@
       <c r="AI3" s="153"/>
       <c r="AJ3" s="153"/>
       <c r="AK3" s="156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="156"/>
       <c r="AM3" s="156"/>
@@ -16101,7 +16135,7 @@
       <c r="AZ3" s="157"/>
       <c r="BA3" s="157"/>
       <c r="BB3" s="156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="156"/>
       <c r="BD3" s="156"/>
@@ -16125,7 +16159,7 @@
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
@@ -16143,21 +16177,21 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="159"/>
       <c r="E6" s="159"/>
       <c r="F6" s="159"/>
       <c r="G6" s="159"/>
       <c r="H6" s="159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="159"/>
       <c r="J6" s="159"/>
       <c r="K6" s="159"/>
       <c r="L6" s="159"/>
       <c r="M6" s="160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="160"/>
       <c r="O6" s="160"/>
@@ -16187,7 +16221,7 @@
       <c r="AM6" s="160"/>
       <c r="AN6" s="160"/>
       <c r="AO6" s="161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="161"/>
@@ -16219,7 +16253,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="161"/>
@@ -16231,7 +16265,7 @@
       <c r="K7" s="161"/>
       <c r="L7" s="161"/>
       <c r="M7" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
@@ -16295,7 +16329,7 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B9" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD9" s="48"/>
       <c r="AG9" s="57"/>
@@ -16306,7 +16340,7 @@
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
       <c r="G10" s="154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="154"/>
       <c r="I10" s="154"/>
@@ -16321,12 +16355,12 @@
       <c r="R10" s="154"/>
       <c r="S10" s="154"/>
       <c r="T10" s="154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="154"/>
       <c r="V10" s="154"/>
       <c r="W10" s="159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10" s="159"/>
       <c r="Y10" s="159"/>
@@ -16367,7 +16401,7 @@
       <c r="BH10" s="159"/>
       <c r="BI10" s="159"/>
       <c r="BJ10" s="159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK10" s="159"/>
       <c r="BL10" s="159"/>
@@ -16379,7 +16413,7 @@
     <row r="11" spans="1:69" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="C11" s="163" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="163"/>
       <c r="E11" s="163"/>
@@ -16450,7 +16484,7 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="164" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="164"/>
       <c r="E12" s="164"/>
@@ -16520,7 +16554,7 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="164" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="164"/>
       <c r="E13" s="164"/>
@@ -16590,7 +16624,7 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C14" s="164" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="164"/>
       <c r="E14" s="164"/>
@@ -16660,7 +16694,7 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C15" s="164" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D15" s="164"/>
       <c r="E15" s="164"/>
@@ -16734,7 +16768,7 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="48"/>
       <c r="AG17" s="57"/>
@@ -16745,7 +16779,7 @@
       <c r="E18" s="162"/>
       <c r="F18" s="162"/>
       <c r="G18" s="154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="154"/>
       <c r="I18" s="154"/>
@@ -16760,12 +16794,12 @@
       <c r="R18" s="154"/>
       <c r="S18" s="154"/>
       <c r="T18" s="154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="154"/>
       <c r="V18" s="154"/>
       <c r="W18" s="159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X18" s="159"/>
       <c r="Y18" s="159"/>
@@ -16806,7 +16840,7 @@
       <c r="BH18" s="159"/>
       <c r="BI18" s="159"/>
       <c r="BJ18" s="159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK18" s="159"/>
       <c r="BL18" s="159"/>
@@ -16817,13 +16851,13 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C19" s="163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="163"/>
       <c r="E19" s="163"/>
       <c r="F19" s="163"/>
       <c r="G19" s="70" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -16965,7 +16999,7 @@
     <row r="22" spans="1:69" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -17106,7 +17140,7 @@
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="58"/>
       <c r="D24" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AD24" s="48"/>
       <c r="AG24" s="57"/>
@@ -17122,7 +17156,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="58"/>
       <c r="D26" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AD26" s="48"/>
       <c r="AG26" s="57"/>
@@ -17226,7 +17260,7 @@
       <c r="C34" s="58"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -17554,7 +17588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404FC105-19B4-4AFC-8CE1-A3ECB6DDA8DE}">
   <dimension ref="A1:AMK59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -17572,7 +17606,7 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -17582,7 +17616,7 @@
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
       <c r="I1" s="150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="150"/>
       <c r="K1" s="150"/>
@@ -17661,7 +17695,7 @@
       <c r="G2" s="152"/>
       <c r="H2" s="152"/>
       <c r="I2" s="153" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J2" s="153"/>
       <c r="K2" s="153"/>
@@ -17691,7 +17725,7 @@
       <c r="AI2" s="153"/>
       <c r="AJ2" s="153"/>
       <c r="AK2" s="154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="154"/>
       <c r="AM2" s="154"/>
@@ -17702,7 +17736,7 @@
       <c r="AR2" s="154"/>
       <c r="AS2" s="154"/>
       <c r="AT2" s="154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU2" s="154"/>
       <c r="AV2" s="154"/>
@@ -17712,7 +17746,7 @@
       <c r="AZ2" s="154"/>
       <c r="BA2" s="154"/>
       <c r="BB2" s="154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="154"/>
       <c r="BD2" s="154"/>
@@ -17722,7 +17756,7 @@
       <c r="BH2" s="154"/>
       <c r="BI2" s="154"/>
       <c r="BJ2" s="155" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="BK2" s="155"/>
       <c r="BL2" s="155"/>
@@ -17745,7 +17779,7 @@
       <c r="J3" s="153"/>
       <c r="K3" s="153"/>
       <c r="L3" s="153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="153"/>
@@ -17772,7 +17806,7 @@
       <c r="AI3" s="153"/>
       <c r="AJ3" s="153"/>
       <c r="AK3" s="156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="156"/>
       <c r="AM3" s="156"/>
@@ -17793,7 +17827,7 @@
       <c r="AZ3" s="157"/>
       <c r="BA3" s="157"/>
       <c r="BB3" s="156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="156"/>
       <c r="BD3" s="156"/>
@@ -17819,7 +17853,7 @@
     </row>
     <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
@@ -17837,21 +17871,21 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="159"/>
       <c r="E6" s="159"/>
       <c r="F6" s="159"/>
       <c r="G6" s="159"/>
       <c r="H6" s="159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="159"/>
       <c r="J6" s="159"/>
       <c r="K6" s="159"/>
       <c r="L6" s="159"/>
       <c r="M6" s="160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="160"/>
       <c r="O6" s="160"/>
@@ -17881,7 +17915,7 @@
       <c r="AM6" s="160"/>
       <c r="AN6" s="160"/>
       <c r="AO6" s="161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="161"/>
@@ -17913,7 +17947,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C7" s="161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="161"/>
@@ -17925,7 +17959,7 @@
       <c r="K7" s="161"/>
       <c r="L7" s="161"/>
       <c r="M7" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
@@ -17989,7 +18023,7 @@
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B9" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD9" s="48"/>
       <c r="AG9" s="57"/>
@@ -18000,7 +18034,7 @@
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
       <c r="G10" s="154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="154"/>
       <c r="I10" s="154"/>
@@ -18015,12 +18049,12 @@
       <c r="R10" s="154"/>
       <c r="S10" s="154"/>
       <c r="T10" s="154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="154"/>
       <c r="V10" s="154"/>
       <c r="W10" s="159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X10" s="159"/>
       <c r="Y10" s="159"/>
@@ -18061,7 +18095,7 @@
       <c r="BH10" s="159"/>
       <c r="BI10" s="159"/>
       <c r="BJ10" s="159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK10" s="159"/>
       <c r="BL10" s="159"/>
@@ -18073,13 +18107,13 @@
     <row r="11" spans="1:69" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="C11" s="163" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="163"/>
       <c r="E11" s="163"/>
       <c r="F11" s="163"/>
       <c r="G11" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
@@ -18094,12 +18128,12 @@
       <c r="R11" s="67"/>
       <c r="S11" s="66"/>
       <c r="T11" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" s="154"/>
       <c r="V11" s="154"/>
       <c r="W11" s="69" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X11" s="67"/>
       <c r="Y11" s="67"/>
@@ -18150,13 +18184,13 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="164" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D12" s="164"/>
       <c r="E12" s="164"/>
       <c r="F12" s="164"/>
       <c r="G12" s="70" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
@@ -18171,12 +18205,12 @@
       <c r="R12" s="67"/>
       <c r="S12" s="66"/>
       <c r="T12" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" s="154"/>
       <c r="V12" s="154"/>
       <c r="W12" s="69" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="X12" s="67"/>
       <c r="Y12" s="67"/>
@@ -18226,13 +18260,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="164" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13" s="164"/>
       <c r="E13" s="164"/>
       <c r="F13" s="164"/>
       <c r="G13" s="48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
@@ -18247,12 +18281,12 @@
       <c r="R13" s="67"/>
       <c r="S13" s="66"/>
       <c r="T13" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="154"/>
       <c r="V13" s="154"/>
       <c r="W13" s="69" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="X13" s="67"/>
       <c r="Y13" s="67"/>
@@ -18442,7 +18476,7 @@
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD17" s="48"/>
       <c r="AG17" s="57"/>
@@ -18453,7 +18487,7 @@
       <c r="E18" s="162"/>
       <c r="F18" s="162"/>
       <c r="G18" s="154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="154"/>
       <c r="I18" s="154"/>
@@ -18468,12 +18502,12 @@
       <c r="R18" s="154"/>
       <c r="S18" s="154"/>
       <c r="T18" s="154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="154"/>
       <c r="V18" s="154"/>
       <c r="W18" s="159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X18" s="159"/>
       <c r="Y18" s="159"/>
@@ -18514,7 +18548,7 @@
       <c r="BH18" s="159"/>
       <c r="BI18" s="159"/>
       <c r="BJ18" s="159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK18" s="159"/>
       <c r="BL18" s="159"/>
@@ -18525,13 +18559,13 @@
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C19" s="163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="163"/>
       <c r="E19" s="163"/>
       <c r="F19" s="163"/>
       <c r="G19" s="70" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
@@ -18673,7 +18707,7 @@
     <row r="22" spans="1:69" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -18814,7 +18848,7 @@
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="58"/>
       <c r="D24" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -18884,7 +18918,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="58"/>
       <c r="D26" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -18930,7 +18964,7 @@
       <c r="C27" s="58"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -18995,7 +19029,7 @@
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="58"/>
       <c r="E28" s="138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="138"/>
       <c r="G28" s="138"/>
@@ -19007,7 +19041,7 @@
       <c r="M28" s="138"/>
       <c r="N28" s="138"/>
       <c r="O28" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P28" s="139"/>
       <c r="Q28" s="139"/>
@@ -19062,7 +19096,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="58"/>
       <c r="E29" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="138"/>
       <c r="G29" s="138"/>
@@ -19074,7 +19108,7 @@
       <c r="M29" s="138"/>
       <c r="N29" s="138"/>
       <c r="O29" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P29" s="141"/>
       <c r="Q29" s="141"/>
@@ -19129,7 +19163,7 @@
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C30" s="58"/>
       <c r="E30" s="138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="138"/>
       <c r="G30" s="138"/>
@@ -19141,7 +19175,7 @@
       <c r="M30" s="138"/>
       <c r="N30" s="138"/>
       <c r="O30" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P30" s="141"/>
       <c r="Q30" s="141"/>
@@ -19196,7 +19230,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="58"/>
       <c r="E31" s="138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="138"/>
       <c r="G31" s="138"/>
@@ -19208,7 +19242,7 @@
       <c r="M31" s="138"/>
       <c r="N31" s="138"/>
       <c r="O31" s="141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="141"/>
       <c r="Q31" s="141"/>
@@ -19268,7 +19302,7 @@
       <c r="A33" s="51"/>
       <c r="C33" s="58"/>
       <c r="E33" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AG33" s="57"/>
       <c r="BP33" s="56"/>
@@ -19319,7 +19353,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C41" s="58"/>
       <c r="E41" s="39" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -19385,7 +19419,7 @@
       <c r="C42" s="58"/>
       <c r="E42" s="43"/>
       <c r="F42" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -19394,7 +19428,7 @@
       <c r="K42" s="40"/>
       <c r="L42" s="42"/>
       <c r="M42" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
@@ -19452,7 +19486,7 @@
       <c r="C43" s="58"/>
       <c r="E43" s="46"/>
       <c r="F43" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -19461,7 +19495,7 @@
       <c r="K43" s="40"/>
       <c r="L43" s="42"/>
       <c r="M43" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
@@ -19525,7 +19559,7 @@
       <c r="C45" s="58"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -19653,7 +19687,7 @@
     <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C47" s="58"/>
       <c r="E47" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -19719,7 +19753,7 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C48" s="58"/>
       <c r="F48" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H48" s="71"/>
       <c r="I48" s="71"/>
@@ -20282,12 +20316,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="78" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="165" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -20299,14 +20333,14 @@
       <c r="J3" s="166"/>
       <c r="K3" s="167"/>
       <c r="L3" s="165" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M3" s="166"/>
       <c r="N3" s="166"/>
       <c r="O3" s="166"/>
       <c r="P3" s="167"/>
       <c r="Q3" s="165" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R3" s="166"/>
       <c r="S3" s="166"/>
@@ -20343,10 +20377,10 @@
     </row>
     <row r="4" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -20357,14 +20391,14 @@
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
       <c r="L4" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M4" s="81"/>
       <c r="N4" s="81"/>
       <c r="O4" s="81"/>
       <c r="P4" s="83"/>
       <c r="Q4" s="81" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R4" s="81"/>
       <c r="S4" s="81"/>
@@ -20451,10 +20485,10 @@
     </row>
     <row r="6" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
@@ -20465,14 +20499,14 @@
       <c r="J6" s="81"/>
       <c r="K6" s="81"/>
       <c r="L6" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M6" s="81"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="81" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R6" s="81"/>
       <c r="S6" s="81"/>
@@ -20559,10 +20593,10 @@
     </row>
     <row r="8" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
@@ -20573,14 +20607,14 @@
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
       <c r="L8" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M8" s="81"/>
       <c r="N8" s="81"/>
       <c r="O8" s="81"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="81" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R8" s="81"/>
       <c r="S8" s="81"/>
@@ -20667,10 +20701,10 @@
     </row>
     <row r="10" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -20681,14 +20715,14 @@
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
       <c r="L10" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M10" s="81"/>
       <c r="N10" s="81"/>
       <c r="O10" s="81"/>
       <c r="P10" s="83"/>
       <c r="Q10" s="81" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R10" s="81"/>
       <c r="S10" s="81"/>
@@ -20740,7 +20774,7 @@
       <c r="O11" s="85"/>
       <c r="P11" s="86"/>
       <c r="Q11" s="85" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
@@ -20777,10 +20811,10 @@
     </row>
     <row r="12" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -20791,14 +20825,14 @@
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M12" s="81"/>
       <c r="N12" s="81"/>
       <c r="O12" s="81"/>
       <c r="P12" s="83"/>
       <c r="Q12" s="81" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="R12" s="81"/>
       <c r="S12" s="81"/>
@@ -20850,7 +20884,7 @@
       <c r="O13" s="85"/>
       <c r="P13" s="86"/>
       <c r="Q13" s="113" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="R13" s="85"/>
       <c r="S13" s="85"/>
@@ -20887,10 +20921,10 @@
     </row>
     <row r="14" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -20901,14 +20935,14 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M14" s="81"/>
       <c r="N14" s="81"/>
       <c r="O14" s="81"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="81" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R14" s="81"/>
       <c r="S14" s="81"/>
@@ -20995,10 +21029,10 @@
     </row>
     <row r="16" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
@@ -21009,14 +21043,14 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M16" s="81"/>
       <c r="N16" s="81"/>
       <c r="O16" s="81"/>
       <c r="P16" s="83"/>
       <c r="Q16" s="81" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="R16" s="81"/>
       <c r="S16" s="81"/>
@@ -21068,7 +21102,7 @@
       <c r="O17" s="85"/>
       <c r="P17" s="86"/>
       <c r="Q17" s="85" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="R17" s="85"/>
       <c r="S17" s="85"/>
@@ -21105,10 +21139,10 @@
     </row>
     <row r="18" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
@@ -21119,14 +21153,14 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="82" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M18" s="81"/>
       <c r="N18" s="81"/>
       <c r="O18" s="81"/>
       <c r="P18" s="83"/>
       <c r="Q18" s="81" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="R18" s="81"/>
       <c r="S18" s="81"/>
@@ -21213,7 +21247,7 @@
     </row>
     <row r="20" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -21337,12 +21371,12 @@
   <sheetData>
     <row r="2" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="168" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="169"/>
       <c r="D3" s="169"/>
@@ -21356,14 +21390,14 @@
       <c r="L3" s="169"/>
       <c r="M3" s="170"/>
       <c r="N3" s="168" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O3" s="169"/>
       <c r="P3" s="169"/>
       <c r="Q3" s="169"/>
       <c r="R3" s="170"/>
       <c r="S3" s="168" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T3" s="169"/>
       <c r="U3" s="169"/>
@@ -21400,10 +21434,10 @@
     </row>
     <row r="4" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
@@ -21416,14 +21450,14 @@
       <c r="L4" s="90"/>
       <c r="M4" s="90"/>
       <c r="N4" s="91" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O4" s="90"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="90"/>
       <c r="R4" s="92"/>
       <c r="S4" s="90" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T4" s="90"/>
       <c r="U4" s="90"/>
@@ -21512,10 +21546,10 @@
     </row>
     <row r="6" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -21528,14 +21562,14 @@
       <c r="L6" s="90"/>
       <c r="M6" s="90"/>
       <c r="N6" s="91" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="90"/>
       <c r="R6" s="92"/>
       <c r="S6" s="90" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="T6" s="90"/>
       <c r="U6" s="90"/>
@@ -21573,7 +21607,7 @@
     <row r="7" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="93"/>
       <c r="C7" s="94" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
@@ -21626,10 +21660,10 @@
     </row>
     <row r="8" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
@@ -21642,14 +21676,14 @@
       <c r="L8" s="90"/>
       <c r="M8" s="90"/>
       <c r="N8" s="91" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="90"/>
       <c r="R8" s="92"/>
       <c r="S8" s="90" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T8" s="90"/>
       <c r="U8" s="90"/>
@@ -21687,7 +21721,7 @@
     <row r="9" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="93"/>
       <c r="C9" s="94" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="94"/>
@@ -21700,7 +21734,7 @@
       <c r="L9" s="94"/>
       <c r="M9" s="94"/>
       <c r="N9" s="93" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O9" s="94"/>
       <c r="P9" s="94"/>
@@ -21742,10 +21776,10 @@
     </row>
     <row r="10" spans="2:51" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -21758,14 +21792,14 @@
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
       <c r="N10" s="91" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="90"/>
       <c r="R10" s="92"/>
       <c r="S10" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="T10" s="90"/>
       <c r="U10" s="90"/>
@@ -21876,12 +21910,12 @@
   <sheetData>
     <row r="2" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="100" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="102" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -21899,14 +21933,14 @@
       <c r="P3" s="103"/>
       <c r="Q3" s="104"/>
       <c r="R3" s="171" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S3" s="172"/>
       <c r="T3" s="172"/>
       <c r="U3" s="172"/>
       <c r="V3" s="173"/>
       <c r="W3" s="103" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="X3" s="103"/>
       <c r="Y3" s="103"/>
@@ -21943,10 +21977,10 @@
     </row>
     <row r="4" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="105" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
@@ -21963,14 +21997,14 @@
       <c r="P4" s="106"/>
       <c r="Q4" s="107"/>
       <c r="R4" s="108" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S4" s="106"/>
       <c r="T4" s="106"/>
       <c r="U4" s="106"/>
       <c r="V4" s="107"/>
       <c r="W4" s="106" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="X4" s="106"/>
       <c r="Y4" s="106"/>
@@ -22008,7 +22042,7 @@
     <row r="5" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="109"/>
       <c r="C5" s="101" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D5" s="110"/>
       <c r="E5" s="110"/>
@@ -22025,7 +22059,7 @@
       <c r="P5" s="110"/>
       <c r="Q5" s="111"/>
       <c r="R5" s="109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S5" s="110"/>
       <c r="T5" s="110"/>
@@ -22067,10 +22101,10 @@
     </row>
     <row r="6" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="105" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
@@ -22087,14 +22121,14 @@
       <c r="P6" s="106"/>
       <c r="Q6" s="107"/>
       <c r="R6" s="108" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S6" s="106"/>
       <c r="T6" s="106"/>
       <c r="U6" s="106"/>
       <c r="V6" s="107"/>
       <c r="W6" s="106" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="X6" s="106"/>
       <c r="Y6" s="106"/>
@@ -22132,7 +22166,7 @@
     <row r="7" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="109"/>
       <c r="C7" s="101" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D7" s="110"/>
       <c r="E7" s="110"/>
@@ -22149,7 +22183,7 @@
       <c r="P7" s="110"/>
       <c r="Q7" s="111"/>
       <c r="R7" s="109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="110"/>
@@ -22191,10 +22225,10 @@
     </row>
     <row r="8" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="105" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
@@ -22211,14 +22245,14 @@
       <c r="P8" s="106"/>
       <c r="Q8" s="107"/>
       <c r="R8" s="108" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S8" s="106"/>
       <c r="T8" s="106"/>
       <c r="U8" s="106"/>
       <c r="V8" s="107"/>
       <c r="W8" s="106" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="X8" s="106"/>
       <c r="Y8" s="106"/>
@@ -22256,7 +22290,7 @@
     <row r="9" spans="2:65" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="109"/>
       <c r="C9" s="110" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D9" s="110"/>
       <c r="E9" s="110"/>
@@ -22273,7 +22307,7 @@
       <c r="P9" s="110"/>
       <c r="Q9" s="111"/>
       <c r="R9" s="109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S9" s="110"/>
       <c r="T9" s="110"/>
@@ -22457,34 +22491,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
